--- a/summary result on clustering.xlsx
+++ b/summary result on clustering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackrose/Desktop/dsmp-2024-group-38/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{852E8738-389B-D743-9158-5540E202EF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7525B95B-4834-1E44-9154-3095A5FD8A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{87EECDD8-BB8F-2546-A24E-C31FE50F94D3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>Sum</t>
   </si>
@@ -71,9 +71,6 @@
     <t>all business but with PCA 0.95%</t>
   </si>
   <si>
-    <t>top_3 with encode category</t>
-  </si>
-  <si>
     <t xml:space="preserve">top_3 without encode </t>
   </si>
   <si>
@@ -87,16 +84,41 @@
   </si>
   <si>
     <t>all business but with PCA 0.95% (1629, 23)</t>
+  </si>
+  <si>
+    <t>top_3 with encode bus</t>
+  </si>
+  <si>
+    <t>Explain</t>
+  </si>
+  <si>
+    <t>compare bwtween sum and avg.</t>
+  </si>
+  <si>
+    <t>Next: combine the best feature on each model</t>
+  </si>
+  <si>
+    <t>for exapmle use pca better?</t>
+  </si>
+  <si>
+    <t>use weekday and amout not combine to category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,16 +174,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,294 +500,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6615CEB-228D-9141-AC3B-5E6E6DFC65F0}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>0.21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.1399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="7">
-        <v>0.19800000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="E13">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7" t="s">
+      <c r="E14" s="7">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="7">
-        <v>0.13400000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5" t="s">
+      <c r="E15" s="5">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7" t="s">
+      <c r="E16" s="3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="7">
-        <v>0.1399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5" t="s">
+      <c r="E17" s="5">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="5">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3" t="s">
+      <c r="E18" s="3">
+        <v>0.47749999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="3">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5" t="s">
+      <c r="E19" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="5">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0.438</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.47749999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>-0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/summary result on clustering.xlsx
+++ b/summary result on clustering.xlsx
@@ -274,6 +274,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -413,12 +419,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +607,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,16 +631,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -649,67 +649,67 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,7 +731,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -741,12 +741,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1069,7 +1066,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1118,7 +1115,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="3">
-        <v>0.096</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1157,7 +1154,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="3">
-        <v>0.002</v>
+        <v>0.05</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -1261,7 +1258,7 @@
       <c r="D14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="9">
         <v>0.52</v>
       </c>
     </row>
@@ -1331,28 +1328,28 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="3">
         <v>0.096</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="3">
         <v>0.094</v>
       </c>
     </row>
@@ -1373,12 +1370,12 @@
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="11">
         <v>0.61</v>
       </c>
     </row>

--- a/summary result on clustering.xlsx
+++ b/summary result on clustering.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackrose/Desktop/dsmp-2024-group-38/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7525B95B-4834-1E44-9154-3095A5FD8A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1F1C56-93E6-D74D-9763-60BC1C379070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{87EECDD8-BB8F-2546-A24E-C31FE50F94D3}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +33,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+  <si>
+    <t>Feature</t>
+  </si>
   <si>
     <t>Sum</t>
   </si>
@@ -44,21 +44,18 @@
     <t>Average</t>
   </si>
   <si>
-    <t>Feature</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
     <t>Score</t>
   </si>
   <si>
+    <t>All Businesses</t>
+  </si>
+  <si>
     <t>KMeans</t>
   </si>
   <si>
-    <t>All Businesses</t>
-  </si>
-  <si>
     <t>HDBSCAN</t>
   </si>
   <si>
@@ -68,9 +65,15 @@
     <t>-</t>
   </si>
   <si>
+    <t>all business but with PCA 0.95% (1629, 23)</t>
+  </si>
+  <si>
     <t>all business but with PCA 0.95%</t>
   </si>
   <si>
+    <t>top_3 with encode category</t>
+  </si>
+  <si>
     <t xml:space="preserve">top_3 without encode </t>
   </si>
   <si>
@@ -80,28 +83,10 @@
     <t>Category with normalize</t>
   </si>
   <si>
+    <t>Category with normalize with PCA 85%</t>
+  </si>
+  <si>
     <t>Category wo normalize</t>
-  </si>
-  <si>
-    <t>all business but with PCA 0.95% (1629, 23)</t>
-  </si>
-  <si>
-    <t>top_3 with encode bus</t>
-  </si>
-  <si>
-    <t>Explain</t>
-  </si>
-  <si>
-    <t>compare bwtween sum and avg.</t>
-  </si>
-  <si>
-    <t>Next: combine the best feature on each model</t>
-  </si>
-  <si>
-    <t>for exapmle use pca better?</t>
-  </si>
-  <si>
-    <t>use weekday and amout not combine to category</t>
   </si>
 </sst>
 </file>
@@ -113,18 +98,18 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,7 +118,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,7 +154,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -165,7 +162,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -176,16 +173,16 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -246,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -279,26 +276,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -331,23 +311,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -490,37 +453,31 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6615CEB-228D-9141-AC3B-5E6E6DFC65F0}">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.5" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -529,33 +486,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2"/>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
-      </c>
-      <c r="E2">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
@@ -565,35 +523,38 @@
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5">
-        <v>0.19800000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.24</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.12</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
@@ -603,23 +564,25 @@
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="5">
         <v>0.13400000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -629,23 +592,25 @@
       <c r="E9" s="3">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" s="5">
-        <v>0.1399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s">
@@ -655,9 +620,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -665,157 +630,166 @@
         <v>7</v>
       </c>
       <c r="E12" s="3">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>0.375</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>16</v>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="9"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="7">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="5">
-        <v>0.438</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.439</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="3">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="10"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" s="5">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="3">
         <v>0.47749999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" s="5">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E24" s="3">
         <v>-0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
